--- a/Client/Dev/PandaVillage/Assets/Tables/usetoolgroup_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/usetoolgroup_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5862AF-7E63-4DEC-8E3A-949DD089E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="8340" windowWidth="28800" windowHeight="14970" xr2:uid="{FF27C9DB-E948-4510-BE0C-97991FD52F3C}"/>
+    <workbookView xWindow="10275" yWindow="8340" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +131,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828C2BAD-FED8-4D94-9D36-B63593C0281B}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,6 +549,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>30006</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
